--- a/Torta/risultati-prunning.xlsx
+++ b/Torta/risultati-prunning.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="8520" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="8520" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="97">
   <si>
     <t>profondità</t>
   </si>
@@ -315,8 +315,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="169" formatCode="#,##0.0000000"/>
-    <numFmt numFmtId="171" formatCode="#,##0.000000000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0000000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.000000000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -356,10 +356,10 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1018,8 +1018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1377,10 +1377,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:M19"/>
+  <dimension ref="C1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G7"/>
+      <selection activeCell="J15" sqref="J15:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1398,14 +1398,20 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H1" t="s">
-        <v>5</v>
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
       </c>
       <c r="K1" t="s">
         <v>6</v>
@@ -1426,222 +1432,194 @@
       <c r="D3" t="s">
         <v>66</v>
       </c>
-      <c r="F3">
-        <v>512</v>
-      </c>
-      <c r="G3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H3">
-        <v>76</v>
-      </c>
-      <c r="I3" t="s">
-        <v>12</v>
-      </c>
       <c r="K3" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="4" spans="3:13">
+      <c r="E4">
+        <v>76</v>
+      </c>
       <c r="F4">
-        <v>256</v>
-      </c>
-      <c r="G4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4">
+        <v>49</v>
+      </c>
+      <c r="H4">
+        <v>76</v>
+      </c>
+      <c r="I4">
+        <v>35</v>
+      </c>
+      <c r="J4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="3:13">
+      <c r="E5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" t="s">
         <v>83</v>
-      </c>
-      <c r="H4">
-        <v>35</v>
-      </c>
-      <c r="I4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="3:13">
-      <c r="F5">
-        <v>512</v>
       </c>
       <c r="G5" t="s">
         <v>80</v>
       </c>
-      <c r="H5">
-        <v>49</v>
+      <c r="H5" t="s">
+        <v>81</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>82</v>
+      </c>
+      <c r="J5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="3:13">
+      <c r="E6">
+        <v>512</v>
+      </c>
       <c r="F6">
+        <v>256</v>
+      </c>
+      <c r="G6">
         <v>512</v>
       </c>
-      <c r="G6" t="s">
-        <v>81</v>
-      </c>
       <c r="H6">
-        <v>76</v>
-      </c>
-      <c r="I6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="3:13">
-      <c r="F7">
+        <v>512</v>
+      </c>
+      <c r="I6">
         <v>256</v>
       </c>
-      <c r="G7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H7">
-        <v>35</v>
-      </c>
-      <c r="I7" t="s">
-        <v>16</v>
+      <c r="J6" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="3:13">
       <c r="C9" t="s">
         <v>67</v>
       </c>
+      <c r="E9">
+        <v>76</v>
+      </c>
       <c r="F9">
-        <v>512</v>
-      </c>
-      <c r="G9" t="s">
-        <v>68</v>
+        <v>36</v>
+      </c>
+      <c r="G9">
+        <v>49</v>
       </c>
       <c r="H9">
         <v>76</v>
       </c>
-      <c r="I9" t="s">
-        <v>12</v>
+      <c r="I9">
+        <v>36</v>
+      </c>
+      <c r="J9" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="3:13">
-      <c r="F10">
+      <c r="E10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" t="s">
+        <v>72</v>
+      </c>
+      <c r="J10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13">
+      <c r="E11">
+        <v>512</v>
+      </c>
+      <c r="F11">
         <v>256</v>
       </c>
-      <c r="G10" t="s">
-        <v>69</v>
-      </c>
-      <c r="H10">
-        <v>36</v>
-      </c>
-      <c r="I10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="3:13">
-      <c r="F11">
+      <c r="G11">
         <v>512</v>
       </c>
-      <c r="G11" t="s">
-        <v>70</v>
-      </c>
       <c r="H11">
-        <v>49</v>
-      </c>
-      <c r="I11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="3:13">
-      <c r="F12">
         <v>512</v>
       </c>
-      <c r="G12" t="s">
-        <v>71</v>
-      </c>
-      <c r="H12">
-        <v>76</v>
-      </c>
-      <c r="I12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="3:13">
-      <c r="F13">
+      <c r="I11">
         <v>256</v>
       </c>
-      <c r="G13" t="s">
-        <v>72</v>
-      </c>
-      <c r="H13">
-        <v>36</v>
-      </c>
-      <c r="I13" t="s">
-        <v>16</v>
+      <c r="J11" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="3:13">
       <c r="C15" t="s">
         <v>73</v>
       </c>
+      <c r="E15">
+        <v>76</v>
+      </c>
       <c r="F15">
-        <v>512</v>
-      </c>
-      <c r="G15" t="s">
-        <v>74</v>
+        <v>39</v>
+      </c>
+      <c r="G15">
+        <v>49</v>
       </c>
       <c r="H15">
         <v>76</v>
       </c>
-      <c r="I15" t="s">
-        <v>12</v>
+      <c r="I15">
+        <v>39</v>
+      </c>
+      <c r="J15" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="3:13">
-      <c r="F16">
+      <c r="E16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16" t="s">
+        <v>77</v>
+      </c>
+      <c r="I16" t="s">
+        <v>78</v>
+      </c>
+      <c r="J16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="5:10">
+      <c r="E17">
+        <v>512</v>
+      </c>
+      <c r="F17">
         <v>256</v>
       </c>
-      <c r="G16" t="s">
-        <v>75</v>
-      </c>
-      <c r="H16">
-        <v>39</v>
-      </c>
-      <c r="I16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="6:9">
-      <c r="F17">
+      <c r="G17">
         <v>512</v>
       </c>
-      <c r="G17" t="s">
-        <v>76</v>
-      </c>
       <c r="H17">
-        <v>49</v>
-      </c>
-      <c r="I17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="6:9">
-      <c r="F18">
         <v>512</v>
       </c>
-      <c r="G18" t="s">
-        <v>77</v>
-      </c>
-      <c r="H18">
-        <v>76</v>
-      </c>
-      <c r="I18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="6:9">
-      <c r="F19">
+      <c r="I17">
         <v>256</v>
       </c>
-      <c r="G19" t="s">
-        <v>78</v>
-      </c>
-      <c r="H19">
-        <v>39</v>
-      </c>
-      <c r="I19" t="s">
-        <v>16</v>
+      <c r="J17" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1652,17 +1630,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C1:M19"/>
+  <dimension ref="C1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.28515625" customWidth="1"/>
     <col min="2" max="2" width="3" customWidth="1"/>
-    <col min="4" max="4" width="37.28515625" customWidth="1"/>
+    <col min="4" max="4" width="45.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:13">
@@ -1672,15 +1651,6 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
       <c r="K1" t="s">
         <v>6</v>
       </c>
@@ -1689,6 +1659,21 @@
       </c>
     </row>
     <row r="2" spans="3:13">
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
       <c r="K2" t="s">
         <v>62</v>
       </c>
@@ -1700,222 +1685,196 @@
       <c r="D3" t="s">
         <v>66</v>
       </c>
-      <c r="F3">
-        <v>512</v>
-      </c>
-      <c r="G3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H3">
-        <v>76</v>
-      </c>
-      <c r="I3" t="s">
-        <v>12</v>
-      </c>
       <c r="K3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="4" spans="3:13">
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
       <c r="F4">
-        <v>256</v>
-      </c>
-      <c r="G4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4">
+        <v>35</v>
+      </c>
+      <c r="H4">
+        <v>49</v>
+      </c>
+      <c r="I4">
+        <v>76</v>
+      </c>
+      <c r="J4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="3:13">
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" t="s">
         <v>83</v>
       </c>
-      <c r="H4">
-        <v>35</v>
-      </c>
-      <c r="I4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="3:13">
-      <c r="F5">
-        <v>512</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>80</v>
       </c>
-      <c r="H5">
-        <v>49</v>
-      </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>81</v>
+      </c>
+      <c r="J5" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="3:13">
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
       <c r="F6">
         <v>512</v>
       </c>
-      <c r="G6" t="s">
-        <v>81</v>
+      <c r="G6">
+        <v>256</v>
       </c>
       <c r="H6">
-        <v>76</v>
-      </c>
-      <c r="I6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="3:13">
-      <c r="F7">
+        <v>512</v>
+      </c>
+      <c r="I6">
+        <v>512</v>
+      </c>
+      <c r="J6">
         <v>256</v>
-      </c>
-      <c r="G7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H7">
-        <v>35</v>
-      </c>
-      <c r="I7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="3:13">
       <c r="D9" t="s">
         <v>85</v>
       </c>
-      <c r="F9">
-        <v>512</v>
-      </c>
-      <c r="G9" t="s">
+    </row>
+    <row r="10" spans="3:13">
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>76</v>
+      </c>
+      <c r="G10">
+        <v>38</v>
+      </c>
+      <c r="H10">
+        <v>49</v>
+      </c>
+      <c r="I10">
+        <v>76</v>
+      </c>
+      <c r="J10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13">
+      <c r="E11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
         <v>86</v>
       </c>
-      <c r="H9">
-        <v>76</v>
-      </c>
-      <c r="I9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="3:13">
-      <c r="F10">
-        <v>512</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="G11" t="s">
         <v>87</v>
       </c>
-      <c r="H10">
-        <v>38</v>
-      </c>
-      <c r="I10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="3:13">
-      <c r="F11">
-        <v>512</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>88</v>
       </c>
-      <c r="H11">
-        <v>49</v>
-      </c>
       <c r="I11" t="s">
-        <v>14</v>
+        <v>89</v>
+      </c>
+      <c r="J11" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="3:13">
+      <c r="E12" t="s">
+        <v>3</v>
+      </c>
       <c r="F12">
         <v>512</v>
       </c>
-      <c r="G12" t="s">
-        <v>89</v>
+      <c r="G12">
+        <v>512</v>
       </c>
       <c r="H12">
-        <v>76</v>
-      </c>
-      <c r="I12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="3:13">
-      <c r="F13">
+        <v>512</v>
+      </c>
+      <c r="I12">
+        <v>512</v>
+      </c>
+      <c r="J12">
         <v>256</v>
-      </c>
-      <c r="G13" t="s">
-        <v>90</v>
-      </c>
-      <c r="H13">
-        <v>37</v>
-      </c>
-      <c r="I13" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="15" spans="3:13">
       <c r="D15" t="s">
         <v>91</v>
       </c>
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
       <c r="F15">
-        <v>256</v>
-      </c>
-      <c r="G15" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15">
+        <v>38</v>
+      </c>
+      <c r="H15">
+        <v>49</v>
+      </c>
+      <c r="I15">
+        <v>76</v>
+      </c>
+      <c r="J15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="3:13">
+      <c r="E16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" t="s">
         <v>92</v>
-      </c>
-      <c r="H15">
-        <v>76</v>
-      </c>
-      <c r="I15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="3:13">
-      <c r="F16">
-        <v>512</v>
       </c>
       <c r="G16" t="s">
         <v>93</v>
       </c>
-      <c r="H16">
-        <v>38</v>
+      <c r="H16" t="s">
+        <v>94</v>
       </c>
       <c r="I16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="6:9">
+        <v>95</v>
+      </c>
+      <c r="J16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="5:10">
+      <c r="E17" t="s">
+        <v>3</v>
+      </c>
       <c r="F17">
         <v>256</v>
       </c>
-      <c r="G17" t="s">
-        <v>94</v>
+      <c r="G17">
+        <v>512</v>
       </c>
       <c r="H17">
-        <v>49</v>
-      </c>
-      <c r="I17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="6:9">
-      <c r="F18">
         <v>256</v>
       </c>
-      <c r="G18" t="s">
-        <v>95</v>
-      </c>
-      <c r="H18">
-        <v>76</v>
-      </c>
-      <c r="I18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="6:9">
-      <c r="F19">
+      <c r="I17">
         <v>256</v>
       </c>
-      <c r="G19" t="s">
-        <v>96</v>
-      </c>
-      <c r="H19">
-        <v>37</v>
-      </c>
-      <c r="I19" t="s">
-        <v>16</v>
+      <c r="J17">
+        <v>256</v>
       </c>
     </row>
   </sheetData>

--- a/Torta/risultati-prunning.xlsx
+++ b/Torta/risultati-prunning.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="97">
   <si>
     <t>profondità</t>
   </si>
@@ -318,7 +318,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0000000"/>
     <numFmt numFmtId="165" formatCode="#,##0.000000000"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -331,6 +331,14 @@
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -353,7 +361,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -361,6 +369,7 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1016,16 +1025,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E21" sqref="E21:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="23.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -1039,13 +1052,19 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
       </c>
       <c r="K1" t="s">
         <v>6</v>
@@ -1069,76 +1088,68 @@
       <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="F3">
-        <v>15360</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3">
-        <v>27</v>
-      </c>
-      <c r="I3" t="s">
-        <v>12</v>
-      </c>
       <c r="K3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:13">
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
       <c r="F4">
-        <v>1600</v>
-      </c>
-      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4">
+        <v>20</v>
+      </c>
+      <c r="H4">
+        <v>22</v>
+      </c>
+      <c r="I4">
+        <v>27</v>
+      </c>
+      <c r="J4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
         <v>19</v>
       </c>
-      <c r="H4">
+      <c r="H5" t="s">
         <v>20</v>
       </c>
-      <c r="I4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="F5">
-        <v>1600</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5">
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" t="s">
         <v>22</v>
       </c>
-      <c r="I5" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="6" spans="1:13">
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
       <c r="F6">
         <v>15360</v>
       </c>
-      <c r="G6" t="s">
-        <v>21</v>
+      <c r="G6">
+        <v>1600</v>
       </c>
       <c r="H6">
-        <v>27</v>
-      </c>
-      <c r="I6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="F7">
         <v>1600</v>
       </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7">
-        <v>20</v>
-      </c>
-      <c r="I7" t="s">
-        <v>16</v>
+      <c r="I6">
+        <v>15360</v>
+      </c>
+      <c r="J6">
+        <v>1600</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1148,74 +1159,67 @@
       <c r="D9" t="s">
         <v>48</v>
       </c>
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
       <c r="F9">
-        <v>61440</v>
-      </c>
-      <c r="G9" s="2">
+        <v>27</v>
+      </c>
+      <c r="G9">
+        <v>21</v>
+      </c>
+      <c r="H9">
+        <v>22</v>
+      </c>
+      <c r="I9">
+        <v>27</v>
+      </c>
+      <c r="J9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="2">
         <v>1.5277902999999999</v>
-      </c>
-      <c r="H9">
-        <v>27</v>
-      </c>
-      <c r="I9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="F10">
-        <v>6400</v>
       </c>
       <c r="G10" t="s">
         <v>49</v>
       </c>
-      <c r="H10">
-        <v>21</v>
-      </c>
-      <c r="I10" t="s">
-        <v>13</v>
+      <c r="H10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1.2368585000000001</v>
+      </c>
+      <c r="J10" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:13">
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
       <c r="F11">
+        <v>61440</v>
+      </c>
+      <c r="G11">
+        <v>6400</v>
+      </c>
+      <c r="H11">
         <v>3200</v>
       </c>
-      <c r="G11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11">
-        <v>22</v>
-      </c>
-      <c r="I11" t="s">
-        <v>14</v>
+      <c r="I11">
+        <v>61440</v>
+      </c>
+      <c r="J11">
+        <v>6400</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="F12">
-        <v>61440</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1.2368585000000001</v>
-      </c>
-      <c r="H12">
-        <v>27</v>
-      </c>
-      <c r="I12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="F13">
-        <v>6400</v>
-      </c>
-      <c r="G13" t="s">
-        <v>51</v>
-      </c>
-      <c r="H13">
-        <v>20</v>
-      </c>
-      <c r="I13" t="s">
-        <v>16</v>
-      </c>
+      <c r="G12" s="3"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
@@ -1224,149 +1228,129 @@
       <c r="D15" t="s">
         <v>52</v>
       </c>
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
       <c r="F15">
-        <v>30720</v>
-      </c>
-      <c r="G15" s="3">
+        <v>27</v>
+      </c>
+      <c r="G15">
+        <v>20</v>
+      </c>
+      <c r="H15">
+        <v>22</v>
+      </c>
+      <c r="I15">
+        <v>27</v>
+      </c>
+      <c r="J15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="E16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="3">
         <v>1.0915395999999999</v>
-      </c>
-      <c r="H15">
-        <v>27</v>
-      </c>
-      <c r="I15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="F16">
-        <v>6400</v>
       </c>
       <c r="G16" t="s">
         <v>53</v>
       </c>
-      <c r="H16">
-        <v>20</v>
+      <c r="H16" t="s">
+        <v>54</v>
       </c>
       <c r="I16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>55</v>
+      </c>
+      <c r="J16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="E17" t="s">
+        <v>3</v>
+      </c>
       <c r="F17">
+        <v>30720</v>
+      </c>
+      <c r="G17">
+        <v>6400</v>
+      </c>
+      <c r="H17">
         <v>3200</v>
       </c>
-      <c r="G17" t="s">
-        <v>54</v>
-      </c>
-      <c r="H17">
-        <v>22</v>
-      </c>
-      <c r="I17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="F18">
+      <c r="I17">
         <v>30720</v>
       </c>
-      <c r="G18" t="s">
-        <v>55</v>
-      </c>
-      <c r="H18">
-        <v>27</v>
-      </c>
-      <c r="I18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="F19">
+      <c r="J17">
         <v>6400</v>
       </c>
-      <c r="G19" t="s">
-        <v>56</v>
-      </c>
-      <c r="H19">
-        <v>20</v>
-      </c>
-      <c r="I19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>47</v>
       </c>
       <c r="D21" t="s">
         <v>57</v>
       </c>
+      <c r="E21" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="F21">
-        <v>61440</v>
-      </c>
-      <c r="G21" s="3">
+        <v>27</v>
+      </c>
+      <c r="G21">
+        <v>20</v>
+      </c>
+      <c r="H21">
+        <v>22</v>
+      </c>
+      <c r="I21">
+        <v>27</v>
+      </c>
+      <c r="J21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="E22" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="3">
         <v>1.8595683000000001</v>
-      </c>
-      <c r="H21">
-        <v>27</v>
-      </c>
-      <c r="I21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="F22">
-        <v>6400</v>
       </c>
       <c r="G22" t="s">
         <v>58</v>
       </c>
-      <c r="H22">
-        <v>20</v>
+      <c r="H22" t="s">
+        <v>59</v>
       </c>
       <c r="I22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>60</v>
+      </c>
+      <c r="J22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="E23" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="F23">
+        <v>61440</v>
+      </c>
+      <c r="G23">
+        <v>6400</v>
+      </c>
+      <c r="H23">
         <v>3200</v>
       </c>
-      <c r="G23" t="s">
-        <v>59</v>
-      </c>
-      <c r="H23">
-        <v>22</v>
-      </c>
-      <c r="I23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="F24">
+      <c r="I23">
         <v>25600</v>
       </c>
-      <c r="G24" t="s">
-        <v>60</v>
-      </c>
-      <c r="H24">
-        <v>27</v>
-      </c>
-      <c r="I24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="F25">
+      <c r="J23">
         <v>20480</v>
-      </c>
-      <c r="G25" t="s">
-        <v>61</v>
-      </c>
-      <c r="H25">
-        <v>20</v>
-      </c>
-      <c r="I25" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1380,7 +1364,7 @@
   <dimension ref="C1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15:J17"/>
+      <selection activeCell="J4" sqref="J4:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1633,7 +1617,7 @@
   <dimension ref="C1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E6"/>
+      <selection activeCell="D27" sqref="D26:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Torta/risultati-prunning.xlsx
+++ b/Torta/risultati-prunning.xlsx
@@ -1,23 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paolo Sanfilippo\Documents\GitHub\ialab\Torta\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17A45B4-3ECD-4AA4-BBD5-3FB78A875E32}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="8520" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
     <sheet name="Foglio2" sheetId="2" r:id="rId2"/>
     <sheet name="Foglio3" sheetId="3" r:id="rId3"/>
     <sheet name="Foglio4" sheetId="4" r:id="rId4"/>
+    <sheet name="Foglio5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="112">
   <si>
     <t>profondità</t>
   </si>
@@ -308,17 +315,62 @@
   </si>
   <si>
     <t>0.0303233</t>
+  </si>
+  <si>
+    <t>ASIA</t>
+  </si>
+  <si>
+    <t>MINFILL</t>
+  </si>
+  <si>
+    <t>MINDEGREE</t>
+  </si>
+  <si>
+    <t>TOPOLOGICAL</t>
+  </si>
+  <si>
+    <t>REVERSE</t>
+  </si>
+  <si>
+    <t>ALARM</t>
+  </si>
+  <si>
+    <t>WindRain</t>
+  </si>
+  <si>
+    <t>Minfill</t>
+  </si>
+  <si>
+    <t>Reverse</t>
+  </si>
+  <si>
+    <t>Mindegree</t>
+  </si>
+  <si>
+    <t>WIND</t>
+  </si>
+  <si>
+    <t>AL variare del numero di slice</t>
+  </si>
+  <si>
+    <t>Min degre</t>
+  </si>
+  <si>
+    <t>Min fil</t>
+  </si>
+  <si>
+    <t>reverse</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0000000"/>
     <numFmt numFmtId="165" formatCode="#,##0.000000000"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -376,6 +428,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -422,7 +482,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -454,9 +514,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -488,6 +566,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -663,21 +759,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
-    <col min="6" max="7" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="18.1796875" customWidth="1"/>
+    <col min="6" max="7" width="10.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -703,12 +799,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="K2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -734,7 +830,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="F4">
         <v>1600</v>
       </c>
@@ -748,7 +844,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="F5">
         <v>1600</v>
       </c>
@@ -762,7 +858,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="F6">
         <v>15360</v>
       </c>
@@ -776,7 +872,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="F7">
         <v>1600</v>
       </c>
@@ -790,7 +886,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -810,7 +906,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="F10">
         <v>320</v>
       </c>
@@ -824,7 +920,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="F11">
         <v>3840</v>
       </c>
@@ -838,7 +934,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="F12">
         <v>3840</v>
       </c>
@@ -852,7 +948,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="F13">
         <v>320</v>
       </c>
@@ -866,7 +962,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -886,7 +982,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="F16">
         <v>64</v>
       </c>
@@ -900,7 +996,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F17">
         <v>7680</v>
       </c>
@@ -914,7 +1010,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F18">
         <v>15360</v>
       </c>
@@ -928,7 +1024,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F19">
         <v>64</v>
       </c>
@@ -942,7 +1038,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -962,7 +1058,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F22">
         <v>16</v>
       </c>
@@ -976,7 +1072,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F23">
         <v>16</v>
       </c>
@@ -990,7 +1086,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F24">
         <v>3840</v>
       </c>
@@ -1004,7 +1100,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F25">
         <v>16</v>
       </c>
@@ -1024,24 +1120,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21:E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="23.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.26953125" customWidth="1"/>
+    <col min="6" max="6" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7265625" customWidth="1"/>
+    <col min="9" max="9" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1073,12 +1169,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="K2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -1092,7 +1188,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E4" t="s">
         <v>5</v>
       </c>
@@ -1112,7 +1208,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E5" t="s">
         <v>4</v>
       </c>
@@ -1132,7 +1228,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E6" t="s">
         <v>3</v>
       </c>
@@ -1152,7 +1248,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -1178,7 +1274,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E10" t="s">
         <v>4</v>
       </c>
@@ -1198,7 +1294,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E11" t="s">
         <v>3</v>
       </c>
@@ -1218,10 +1314,10 @@
         <v>6400</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="G12" s="3"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -1247,7 +1343,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E16" t="s">
         <v>4</v>
       </c>
@@ -1267,7 +1363,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E17" t="s">
         <v>3</v>
       </c>
@@ -1287,7 +1383,7 @@
         <v>6400</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -1313,7 +1409,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E22" s="5" t="s">
         <v>4</v>
       </c>
@@ -1333,7 +1429,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E23" s="5" t="s">
         <v>3</v>
       </c>
@@ -1360,22 +1456,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J4" sqref="J4:J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" customWidth="1"/>
-    <col min="2" max="2" width="1.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="1.81640625" customWidth="1"/>
+    <col min="2" max="2" width="1.7265625" customWidth="1"/>
+    <col min="3" max="3" width="21.26953125" customWidth="1"/>
+    <col min="4" max="4" width="15.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:13">
+    <row r="1" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C1" t="s">
         <v>1</v>
       </c>
@@ -1404,12 +1500,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="3:13">
+    <row r="2" spans="3:13" x14ac:dyDescent="0.35">
       <c r="K2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="3:13" ht="16.5">
+    <row r="3" spans="3:13" ht="16.5" x14ac:dyDescent="0.45">
       <c r="C3" t="s">
         <v>65</v>
       </c>
@@ -1420,7 +1516,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="3:13">
+    <row r="4" spans="3:13" x14ac:dyDescent="0.35">
       <c r="E4">
         <v>76</v>
       </c>
@@ -1440,7 +1536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="3:13">
+    <row r="5" spans="3:13" x14ac:dyDescent="0.35">
       <c r="E5" t="s">
         <v>84</v>
       </c>
@@ -1460,7 +1556,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="3:13">
+    <row r="6" spans="3:13" x14ac:dyDescent="0.35">
       <c r="E6">
         <v>512</v>
       </c>
@@ -1480,7 +1576,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="3:13">
+    <row r="9" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
         <v>67</v>
       </c>
@@ -1503,7 +1599,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="3:13">
+    <row r="10" spans="3:13" x14ac:dyDescent="0.35">
       <c r="E10" t="s">
         <v>68</v>
       </c>
@@ -1523,7 +1619,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="3:13">
+    <row r="11" spans="3:13" x14ac:dyDescent="0.35">
       <c r="E11">
         <v>512</v>
       </c>
@@ -1543,7 +1639,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="3:13">
+    <row r="15" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C15" t="s">
         <v>73</v>
       </c>
@@ -1566,7 +1662,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="3:13">
+    <row r="16" spans="3:13" x14ac:dyDescent="0.35">
       <c r="E16" t="s">
         <v>74</v>
       </c>
@@ -1586,7 +1682,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="5:10">
+    <row r="17" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E17">
         <v>512</v>
       </c>
@@ -1613,22 +1709,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="C1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D26:D27"/>
+      <selection activeCell="F17" sqref="F17:J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="1" max="1" width="3.26953125" customWidth="1"/>
     <col min="2" max="2" width="3" customWidth="1"/>
-    <col min="4" max="4" width="45.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="45.1796875" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:13">
+    <row r="1" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C1" t="s">
         <v>1</v>
       </c>
@@ -1642,7 +1738,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="3:13">
+    <row r="2" spans="3:13" x14ac:dyDescent="0.35">
       <c r="F2" t="s">
         <v>12</v>
       </c>
@@ -1662,7 +1758,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="3:13">
+    <row r="3" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C3" t="s">
         <v>65</v>
       </c>
@@ -1673,7 +1769,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="3:13">
+    <row r="4" spans="3:13" x14ac:dyDescent="0.35">
       <c r="E4" t="s">
         <v>5</v>
       </c>
@@ -1693,7 +1789,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="3:13">
+    <row r="5" spans="3:13" x14ac:dyDescent="0.35">
       <c r="E5" t="s">
         <v>4</v>
       </c>
@@ -1713,7 +1809,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="3:13">
+    <row r="6" spans="3:13" x14ac:dyDescent="0.35">
       <c r="E6" t="s">
         <v>3</v>
       </c>
@@ -1733,12 +1829,12 @@
         <v>256</v>
       </c>
     </row>
-    <row r="9" spans="3:13">
+    <row r="9" spans="3:13" x14ac:dyDescent="0.35">
       <c r="D9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="3:13">
+    <row r="10" spans="3:13" x14ac:dyDescent="0.35">
       <c r="E10" t="s">
         <v>5</v>
       </c>
@@ -1758,7 +1854,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="3:13">
+    <row r="11" spans="3:13" x14ac:dyDescent="0.35">
       <c r="E11" t="s">
         <v>4</v>
       </c>
@@ -1778,7 +1874,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="3:13">
+    <row r="12" spans="3:13" x14ac:dyDescent="0.35">
       <c r="E12" t="s">
         <v>3</v>
       </c>
@@ -1798,7 +1894,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="15" spans="3:13">
+    <row r="15" spans="3:13" x14ac:dyDescent="0.35">
       <c r="D15" t="s">
         <v>91</v>
       </c>
@@ -1821,7 +1917,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="3:13">
+    <row r="16" spans="3:13" x14ac:dyDescent="0.35">
       <c r="E16" t="s">
         <v>4</v>
       </c>
@@ -1841,7 +1937,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="5:10">
+    <row r="17" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E17" t="s">
         <v>3</v>
       </c>
@@ -1865,4 +1961,159 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF991959-6D26-41CC-B6DF-27A456D06C09}">
+  <dimension ref="A4:E15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13:E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <v>0.1165718</v>
+      </c>
+      <c r="C5">
+        <v>0.11409420000000001</v>
+      </c>
+      <c r="E5">
+        <v>0.11717420000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6">
+        <v>0.1698192</v>
+      </c>
+      <c r="C6">
+        <v>0.16343840000000001</v>
+      </c>
+      <c r="E6">
+        <v>0.84584099999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <v>0.1238966</v>
+      </c>
+      <c r="C9">
+        <v>0.1102974</v>
+      </c>
+      <c r="E9">
+        <v>0.1108997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>40</v>
+      </c>
+      <c r="D12">
+        <v>60</v>
+      </c>
+      <c r="E12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13">
+        <v>0.11336400000000001</v>
+      </c>
+      <c r="C13">
+        <v>0.1617933</v>
+      </c>
+      <c r="D13">
+        <v>0.17621600000000001</v>
+      </c>
+      <c r="E13">
+        <v>0.22757820000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14">
+        <v>0.16043669999999999</v>
+      </c>
+      <c r="C14">
+        <v>0.1612835</v>
+      </c>
+      <c r="D14">
+        <v>0.1869635</v>
+      </c>
+      <c r="E14">
+        <v>0.19892119999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15">
+        <v>0.1059138</v>
+      </c>
+      <c r="C15">
+        <v>0.14459330000000001</v>
+      </c>
+      <c r="D15">
+        <v>0.1746617</v>
+      </c>
+      <c r="E15">
+        <v>0.1783671</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>